--- a/Bakery1.xlsx
+++ b/Bakery1.xlsx
@@ -1,61 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion lowestEdited="6" appName="xl" rupBuild="21231" lastEdited="7"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonmu\Google Drive\Excel Files for Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB07DA-51BB-4E21-B300-F61BEB0D0547}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" documentId="13_ncr:1_{A4EB07DA-51BB-4E21-B300-F61BEB0D0547}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" windowHeight="16440" yWindow="-120" windowWidth="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suppliers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
-    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
-    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
-    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
-    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
-    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
-    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
-    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
-    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
-    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
-    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
-    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
-    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
-    <definedName name="RiskFixedSeed" hidden="1">1</definedName>
-    <definedName name="RiskHasSettings" hidden="1">5</definedName>
-    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
-    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
-    <definedName name="RiskNumIterations" hidden="1">5000</definedName>
-    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
-    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
-    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
-    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
-    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
-    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
-    <definedName name="RiskSamplingType" hidden="1">3</definedName>
-    <definedName name="RiskStandardRecalc" hidden="1">1</definedName>
-    <definedName name="RiskUpdateDisplay" hidden="1">TRUE</definedName>
-    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
-    <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
-    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_AutomaticallyGenerateReports">FALSE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_AutomaticResultsDisplayMode">0</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergenceConfidenceLevel">0.95</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergencePercentileToTest">0.9</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergencePerformMeanTest">TRUE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergencePerformPercentileTest">FALSE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest">FALSE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergenceTestAllOutputs">TRUE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergenceTestingPeriod">100</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ConvergenceTolerance">0.03</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_LiveUpdate">TRUE</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_LiveUpdatePeriod">-1</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_RandomNumberGenerator">0</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_ReportsList">0</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_SimNameCount">0</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_StdRecalcBehavior">0</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic">0</definedName>
+    <definedName hidden="1" name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile">0.5</definedName>
+    <definedName hidden="1" name="RiskAfterRecalcMacro">""</definedName>
+    <definedName hidden="1" name="RiskAfterSimMacro">""</definedName>
+    <definedName hidden="1" name="RiskBeforeRecalcMacro">""</definedName>
+    <definedName hidden="1" name="RiskBeforeSimMacro">""</definedName>
+    <definedName hidden="1" name="RiskCollectDistributionSamples">2</definedName>
+    <definedName hidden="1" name="RiskFixedSeed">1</definedName>
+    <definedName hidden="1" name="RiskHasSettings">5</definedName>
+    <definedName hidden="1" name="RiskMinimizeOnStart">FALSE</definedName>
+    <definedName hidden="1" name="RiskMonitorConvergence">FALSE</definedName>
+    <definedName hidden="1" name="RiskNumIterations">5000</definedName>
+    <definedName hidden="1" name="RiskNumSimulations">1</definedName>
+    <definedName hidden="1" name="RiskPauseOnError">FALSE</definedName>
+    <definedName hidden="1" name="RiskRunAfterRecalcMacro">FALSE</definedName>
+    <definedName hidden="1" name="RiskRunAfterSimMacro">FALSE</definedName>
+    <definedName hidden="1" name="RiskRunBeforeRecalcMacro">FALSE</definedName>
+    <definedName hidden="1" name="RiskRunBeforeSimMacro">FALSE</definedName>
+    <definedName hidden="1" name="RiskSamplingType">3</definedName>
+    <definedName hidden="1" name="RiskStandardRecalc">1</definedName>
+    <definedName hidden="1" name="RiskUpdateDisplay">TRUE</definedName>
+    <definedName hidden="1" name="RiskUseDifferentSeedForEachSim">FALSE</definedName>
+    <definedName hidden="1" name="RiskUseFixedSeed">FALSE</definedName>
+    <definedName hidden="1" name="RiskUseMultipleCPUs">FALSE</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,8 +68,25 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" roundtripDataSignature="AMtx7mjIm46hYjXS8I37XFZsjbXk1ToFxQ==" r:id="rId6"/>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <authors>
+    <author/>
+  </authors>
+  <commentList/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" roundtripDataSignature="AMtx7mhPKHkWfbYuK89H7ih5yEohm08Z8A==" r:id="rId1"/>
+    </ext>
+  </extLst>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,32 +471,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="15.42578125"/>
+    <col customWidth="1" min="6" max="6" width="10.5703125" bestFit="1"/>
+    <col customWidth="1" min="9" max="9" width="12"/>
+    <col customWidth="1" min="11" max="11" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="1" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="3" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="4" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -490,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -504,7 +521,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -518,7 +535,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -532,7 +549,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -546,7 +563,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -564,7 +581,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -582,13 +599,13 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="11" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="12" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,7 +614,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -612,7 +629,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -630,7 +647,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>5</v>
       </c>
@@ -648,7 +665,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row spans="4:13" r="16" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -662,7 +679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="17" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -676,7 +693,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="18" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>8</v>
       </c>
@@ -690,7 +707,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="19" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -704,12 +721,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="21" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="22" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>1</v>
       </c>
@@ -723,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="23" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -744,12 +761,12 @@
         <v>754.55000000000007</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="24" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ref="E24:G28" si="0">E6*E15</f>
+        <f ref="E24:G28" t="shared" si="0">E6*E15</f>
         <v>135.44999999999999</v>
       </c>
       <c r="F24" s="3">
@@ -761,11 +778,11 @@
         <v>31.400000000000002</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24:H28" si="1">SUM(E24:G24)</f>
+        <f ref="H24:H28" t="shared" si="1">SUM(E24:G24)</f>
         <v>544.15</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="25" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>6</v>
       </c>
@@ -786,7 +803,7 @@
         <v>439.44</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="26" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>7</v>
       </c>
@@ -807,7 +824,7 @@
         <v>460.20000000000005</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="27" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>8</v>
       </c>
@@ -828,7 +845,7 @@
         <v>584.13</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="28" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -849,7 +866,7 @@
         <v>486.49</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row spans="4:8" r="29" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>12</v>
       </c>
@@ -867,6 +884,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins top="0.75" left="0.7" footer="0.3" bottom="0.75" header="0.3" right="0.7"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>